--- a/data/income_statement/2digits/size/80_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/80_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>80-Security and investigation activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>80-Security and investigation activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,95 +841,110 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>189420.6223</v>
+        <v>188915.38377</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>222963.44912</v>
+        <v>219092.65365</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>244553.42471</v>
+        <v>250154.95709</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>333775.50662</v>
+        <v>352567.99133</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>405574.82578</v>
+        <v>405787.96004</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>583966.75514</v>
+        <v>595618.46513</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>804453.3890399999</v>
+        <v>837139.92027</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>1130470.18911</v>
+        <v>1146272.10259</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>1188883.07263</v>
+        <v>1213935.33692</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>1291039.75905</v>
+        <v>1282407.00137</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1315148.72803</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1296725.39443</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1594185.8</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>176041.60907</v>
+        <v>176236.4259</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>205502.21069</v>
+        <v>201634.98297</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>227767.35547</v>
+        <v>233379.53471</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>310169.6190299999</v>
+        <v>325598.77829</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>375672.79726</v>
+        <v>374144.92341</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>543168.5250800001</v>
+        <v>550712.98542</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>757573.2606500001</v>
+        <v>786653.55642</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>1064985.24743</v>
+        <v>1075990.10921</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>1119866.60657</v>
+        <v>1140086.44027</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>1194650.45562</v>
+        <v>1186728.22023</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>1187120.68455</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>1170569.84312</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1477591.247</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>6210.36884</v>
+        <v>5510.313480000001</v>
       </c>
       <c r="D7" s="48" t="n">
         <v>8198.44377</v>
@@ -1037,157 +953,177 @@
         <v>9352.556620000001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>13376.74046</v>
+        <v>15024.54651</v>
       </c>
       <c r="G7" s="48" t="n">
         <v>22462.41373</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>27164.08646</v>
+        <v>26569.71525</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>29470.56539</v>
+        <v>27927.15148</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>36016.61359</v>
+        <v>35430.09888000001</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>50301.82336</v>
+        <v>50432.78466</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>71960.46016</v>
+        <v>71473.93027</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>93155.32603</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>92877.09013</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>89050.834</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>7168.64439</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>9262.79466</v>
+        <v>9259.226909999999</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>7433.51262</v>
+        <v>7422.86576</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>10229.14713</v>
+        <v>11944.66653</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>7439.61479</v>
+        <v>9180.622899999998</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>13634.1436</v>
+        <v>18335.76446</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>17409.563</v>
+        <v>22559.21237</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>29468.32809</v>
+        <v>34851.8945</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>18714.6427</v>
+        <v>23416.11199</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>24428.84327</v>
+        <v>24204.85087</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>34872.71745</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>33278.46118</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>27543.719</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1853.67217</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>977.2188000000001</v>
+        <v>964.1043500000001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1574.01967</v>
+        <v>1286.57159</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>1026.48616</v>
+        <v>1084.02301</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>3249.03111</v>
+        <v>3223.62354</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>6726.94712</v>
+        <v>6652.822700000001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>6299.70513</v>
+        <v>6211.199970000001</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>7711.167850000001</v>
+        <v>9100.76489</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>11651.58766</v>
+        <v>13299.15459</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>33110.03073</v>
+        <v>33050.97477</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>19716.00481</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>19314.38173</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>37908.455</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>1656.06343</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>868.87691</v>
+        <v>855.8473500000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>1323.3664</v>
+        <v>1035.91832</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>785.97801</v>
+        <v>843.5148600000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>2834.31483</v>
+        <v>2809.36976</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>4725.09321</v>
+        <v>4652.18654</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>4025.79983</v>
+        <v>3939.42829</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>5441.03203</v>
+        <v>6836.89651</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>5181.259720000001</v>
+        <v>6843.48736</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>26103.25455</v>
+        <v>26053.86282</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>17275.78472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>16884.50514</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>32521.454</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>166.07935</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>79.36955999999999</v>
+        <v>79.28466999999999</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>165.47972</v>
@@ -1196,31 +1132,36 @@
         <v>230.3951</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>408.97559</v>
+        <v>408.8703399999999</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1774.14021</v>
+        <v>1772.92246</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2124.89112</v>
+        <v>2122.7575</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>2127.80472</v>
+        <v>2121.7771</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>6312.365299999999</v>
+        <v>6318.543320000001</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>5265.07816</v>
+        <v>5257.61319</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>2136.73659</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>2136.27462</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>5200.781</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>31.52939</v>
@@ -1235,7 +1176,7 @@
         <v>10.11305</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>5.74069</v>
+        <v>5.383439999999999</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>227.7137</v>
@@ -1244,217 +1185,247 @@
         <v>149.01418</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>142.3311</v>
+        <v>142.09128</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>157.96264</v>
+        <v>137.12391</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1741.69802</v>
+        <v>1739.49876</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>303.4835</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>293.6019700000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>186.22</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>187566.95013</v>
+        <v>187061.7116</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>221986.23032</v>
+        <v>218128.5493</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>242979.40504</v>
+        <v>248868.3855</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>332749.02046</v>
+        <v>351483.96832</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>402325.79467</v>
+        <v>402564.3365</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>577239.80802</v>
+        <v>588965.6424300001</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>798153.68391</v>
+        <v>830928.7202999999</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>1122759.02126</v>
+        <v>1137171.3377</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>1177231.48497</v>
+        <v>1200636.18233</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>1257929.72832</v>
+        <v>1249356.0266</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>1295432.72322</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1277411.0127</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1556277.345</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>130583.4461</v>
+        <v>129369.24071</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>155127.48531</v>
+        <v>152512.19483</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>173385.90534</v>
+        <v>177215.36689</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>251879.60507</v>
+        <v>261520.18728</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>295233.06143</v>
+        <v>293290.0035399999</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>441933.8790900001</v>
+        <v>441238.83037</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>635694.4293</v>
+        <v>654327.26124</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>905970.40882</v>
+        <v>910838.06871</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>943903.21392</v>
+        <v>956059.30749</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>985993.3652100001</v>
+        <v>979262.4170499999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>999036.01745</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>994044.09462</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1247101.229</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>4637.16207</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>5271.99795</v>
+        <v>5027.02268</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>5366.931909999999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>5247.26292</v>
+        <v>4925.25657</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>4975.18521</v>
+        <v>4962.64058</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>18024.94562</v>
+        <v>17910.7706</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>20405.0317</v>
+        <v>19920.59196</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>21703.7175</v>
+        <v>21590.80605</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>31011.13609</v>
+        <v>31678.65497</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>31223.85979</v>
+        <v>32620.58258999999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>29241.54465</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>26499.35908</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>90623.088</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>27224.54011</v>
+        <v>26076.60305</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>34568.21569</v>
+        <v>33582.93676</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>41125.39611</v>
+        <v>40845.04286</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>63737.34888</v>
+        <v>71297.28177</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>110073.9791</v>
+        <v>106992.16641</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>188628.4938</v>
+        <v>185919.11682</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>290193.61251</v>
+        <v>304603.93613</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>387408.54812</v>
+        <v>396730.07878</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>413119.42954</v>
+        <v>416420.94035</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>450006.5923099999</v>
+        <v>441708.64111</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>426645.96081</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>420466.49959</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>459690.241</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>98682.66392000001</v>
+        <v>98616.39558999999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>115028.13776</v>
+        <v>113643.10148</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>126585.78116</v>
+        <v>130695.59596</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>182535.78714</v>
+        <v>184179.08641</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>180032.41084</v>
+        <v>181183.71027</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>234807.19512</v>
+        <v>236935.6984</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>324163.35473</v>
+        <v>329352.05486</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>494494.75768</v>
+        <v>490162.8778</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>493376.4498</v>
+        <v>501878.57727</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>503116.9357</v>
+        <v>503375.04311</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>540713.9535599999</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>545272.96005</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>694742.384</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>39.08</v>
@@ -1466,7 +1437,7 @@
         <v>307.79616</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>359.20613</v>
+        <v>1118.56253</v>
       </c>
       <c r="G18" s="48" t="n">
         <v>151.48628</v>
@@ -1475,103 +1446,118 @@
         <v>473.2445500000001</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>932.4303600000001</v>
+        <v>450.6782900000001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2363.38552</v>
+        <v>2354.30608</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>6396.198490000001</v>
+        <v>6081.1349</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1645.97741</v>
+        <v>1558.15024</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>2434.55843</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1805.2759</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>2045.516</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>56983.50403</v>
+        <v>57692.47089</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>66858.74501</v>
+        <v>65616.35447000001</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>69593.4997</v>
+        <v>71653.01861</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>80869.41538999999</v>
+        <v>89963.78103999999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>107092.73324</v>
+        <v>109274.33296</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>135305.92893</v>
+        <v>147726.81206</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>162459.25461</v>
+        <v>176601.45906</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>216788.61244</v>
+        <v>226333.26899</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>233328.27105</v>
+        <v>244576.87484</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>271936.36311</v>
+        <v>270093.60955</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>296396.70577</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>283366.91808</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>309176.116</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>47069.64571</v>
+        <v>47482.1136</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>57007.34811</v>
+        <v>55760.5166</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>59204.58783</v>
+        <v>60267.46914</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>68710.78306999999</v>
+        <v>77837.32049</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>93165.4175</v>
+        <v>94775.21848000001</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>115880.16601</v>
+        <v>124629.20845</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>141486.9527</v>
+        <v>166314.4918</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>183289.81237</v>
+        <v>186221.06726</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>188077.65885</v>
+        <v>197741.8846</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>228687.50242</v>
+        <v>226842.88771</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>265206.57631</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>254730.64588</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>266712.687</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>7.275</v>
@@ -1589,184 +1575,209 @@
         <v>0</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>0</v>
+        <v>169.75976</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>0.15549</v>
+        <v>164.23624</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>304.49405</v>
+        <v>338.9721</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>21.92014</v>
+        <v>142.93204</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>1000.36632</v>
+        <v>979.36632</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>1286.73776</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>845.42908</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>216.331</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>5214.06562</v>
+        <v>4946.4925</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>3976.18277</v>
+        <v>3884.7499</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>4853.87379</v>
+        <v>4851.24858</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>8361.88387</v>
+        <v>10633.59111</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>13041.65753</v>
+        <v>13147.04228</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>20465.18024</v>
+        <v>20557.34934</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>20312.67289</v>
+        <v>35092.16912</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>21396.86066</v>
+        <v>21650.65846</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>27418.53008</v>
+        <v>26849.8838</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>38198.49191</v>
+        <v>37323.25743</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>40762.7158</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>37384.90507</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>29176.052</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>41848.30509</v>
+        <v>42528.3461</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>52625.07995</v>
+        <v>51469.68131</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>54216.79969</v>
+        <v>55282.30621</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>60347.44981000001</v>
+        <v>67202.27999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>80123.75997</v>
+        <v>81628.1762</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>95414.98577000001</v>
+        <v>103902.09935</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>121174.12432</v>
+        <v>131058.08644</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>161588.45766</v>
+        <v>164231.4367</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>160637.20863</v>
+        <v>170749.06876</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>189488.64419</v>
+        <v>188540.26396</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>223157.12275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>216500.31173</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>237320.304</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>9913.858320000001</v>
+        <v>10210.35729</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>9851.3969</v>
+        <v>9855.837870000001</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>10388.91187</v>
+        <v>11385.54947</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>12158.63232</v>
+        <v>12126.46055</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>13927.31574</v>
+        <v>14499.11448</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>19425.76292</v>
+        <v>23097.60361</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>20972.30191</v>
+        <v>10286.96726</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>33498.80007</v>
+        <v>40112.20173</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>45250.6122</v>
+        <v>46834.99024</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>43248.86068999999</v>
+        <v>43250.72184000001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>31190.12946</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>28636.2722</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>42463.429</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>2618.22306</v>
+        <v>2618.13573</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>2678.11545</v>
+        <v>2660.44673</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2218.19266</v>
+        <v>2323.585</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>2063.94395</v>
+        <v>9217.39673</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4878.63038</v>
+        <v>7572.97016</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>5495.54391</v>
+        <v>10339.92743</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>12270.98105</v>
+        <v>20148.78384</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>12375.52459</v>
+        <v>32031.70367</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>12964.66279</v>
+        <v>19359.778</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>34766.66916</v>
+        <v>33520.18399</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>18164.20899</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>16554.75936</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>60620.569</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>138.34605</v>
@@ -1784,10 +1795,10 @@
         <v>121.9573</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>50.08055</v>
+        <v>106.63525</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>550.5699499999999</v>
+        <v>549.57312</v>
       </c>
       <c r="J26" s="48" t="n">
         <v>328.40348</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>8.183999999999999</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>78.33726</v>
@@ -1826,10 +1842,10 @@
         <v>587.2078100000001</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>421.84153</v>
+        <v>1988.89816</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>381.1900699999999</v>
+        <v>17018.48458</v>
       </c>
       <c r="K27" s="48" t="n">
         <v>25.13025</v>
@@ -1840,50 +1856,60 @@
       <c r="M27" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>16.234</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>592.64195</v>
+        <v>592.55462</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>232.84774</v>
+        <v>228.71002</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>347.89335</v>
+        <v>539.11062</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>496.89523</v>
+        <v>3592.99605</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1293.8733</v>
+        <v>4194.96917</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>726.3887</v>
+        <v>5552.50686</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>1059.12168</v>
+        <v>6632.731360000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1054.72717</v>
+        <v>6461.50715</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>1941.43787</v>
+        <v>9615.430179999999</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>3385.55209</v>
+        <v>2611.30292</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2804.52025</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2466.8726</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2344.678</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.27457</v>
@@ -1901,28 +1927,33 @@
         <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>16.91</v>
+        <v>0</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>14.45946</v>
+        <v>4.45946</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>56.10176999999999</v>
+        <v>7.309060000000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>52.14498</v>
+        <v>11.04221</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>11.5629</v>
+        <v>43.4632</v>
       </c>
       <c r="M29" s="48" t="n">
         <v>9.431179999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>9.342000000000001</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>16.98356</v>
@@ -1934,22 +1965,22 @@
         <v>1.12841</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>17.7359</v>
+        <v>15</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>477.33267</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>20.2803</v>
+        <v>23.6747</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>60.25092</v>
+        <v>177.52358</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>178.04135</v>
+        <v>198.56686</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>368.54661</v>
+        <v>317.63792</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>1075.92783</v>
@@ -1957,11 +1988,16 @@
       <c r="M30" s="48" t="n">
         <v>265.69163</v>
       </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="N30" s="48" t="n">
+        <v>362.38</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>34.48328</v>
@@ -1970,76 +2006,86 @@
         <v>320.31821</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>68.72933999999999</v>
+        <v>69.50213000000001</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>25.50334</v>
+        <v>50.2417</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>9.062580000000001</v>
+        <v>18.44249</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>23.82651</v>
+        <v>31.50713</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>109.62214</v>
+        <v>113.98959</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>128.83283</v>
+        <v>132.18323</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>147.65355</v>
+        <v>88.73807000000001</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>89.27796000000001</v>
+        <v>89.21680000000001</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>105.79876</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>203.42356</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>270.511</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>796.8999699999999</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>475.72989</v>
+        <v>462.39283</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>1092.74255</v>
+        <v>1006.14483</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>783.90864</v>
+        <v>1403.22496</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2277.87209</v>
+        <v>2018.74831</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2851.01546</v>
+        <v>2907.09198</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>7905.50668</v>
+        <v>7971.33825</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>5713.72305</v>
+        <v>6245.78162</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>7664.34215</v>
+        <v>6598.77821</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>24967.93585</v>
+        <v>24778.96938</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>9656.036809999998</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>9122.18857</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>50657.914</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>0</v>
@@ -2057,7 +2103,7 @@
         <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>0.56821</v>
+        <v>0.00074</v>
       </c>
       <c r="I33" s="48" t="n">
         <v>6.12994</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>2.44493</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>153.405</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>3.49419</v>
@@ -2105,7 +2156,7 @@
         <v>2.00737</v>
       </c>
       <c r="K34" s="48" t="n">
-        <v>1.30203</v>
+        <v>4.05732</v>
       </c>
       <c r="L34" s="48" t="n">
         <v>2</v>
@@ -2113,89 +2164,104 @@
       <c r="M34" s="48" t="n">
         <v>2.2</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>93.529</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>956.7622299999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>659.8663399999999</v>
+        <v>659.6724</v>
       </c>
       <c r="E35" s="48" t="n">
         <v>558.39027</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>686.70929</v>
+        <v>4102.74247</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>418.91208</v>
+        <v>461.89986</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1219.26637</v>
+        <v>1131.30296</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>2141.92882</v>
+        <v>2702.59045</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>4531.85378</v>
+        <v>1636.8166</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2697.99728</v>
+        <v>2632.85577</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>5034.03508</v>
+        <v>4718.92641</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>5318.08543</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>4482.506890000001</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>6704.392</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>834.65392</v>
+        <v>834.0271</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>1024.62703</v>
+        <v>1023.90202</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>1196.55288</v>
+        <v>1142.92096</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>1606.93598</v>
+        <v>2561.74337</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>2641.45844</v>
+        <v>1771.12018</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>3646.49083</v>
+        <v>4755.9235</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>8185.45914</v>
+        <v>9430.254560000001</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>6157.43004</v>
+        <v>6481.51156</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>8268.09015</v>
+        <v>8753.364240000001</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>26558.76722</v>
+        <v>26045.62733</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>12306.6381</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>11315.56095</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>39085.358</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>14.05224</v>
@@ -2204,37 +2270,42 @@
         <v>30.93874</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>27.56859</v>
+        <v>23.98852</v>
       </c>
       <c r="F37" s="48" t="n">
         <v>31.02243</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>45.53791</v>
+        <v>37.8325</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>23.82036</v>
+        <v>20.26401</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>74.11302000000001</v>
+        <v>68.99657000000001</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>62.30122</v>
+        <v>62.50980999999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>354.2407</v>
+        <v>349.65843</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>3147.0147</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>1534.81167</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>1471.9512</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>78.611</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>107.69859</v>
@@ -2252,28 +2323,33 @@
         <v>63.71814</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>304.97621</v>
+        <v>600.6414</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>812.2608500000001</v>
+        <v>1357.13711</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>1033.892</v>
+        <v>1119.6654</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>776.8263099999999</v>
+        <v>1429.11581</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>3070.5828</v>
+        <v>2677.56962</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1735.33352</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1408.99156</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1832.131</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2291,7 +2367,7 @@
         <v>0</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>13.55444</v>
+        <v>866.40478</v>
       </c>
       <c r="I39" s="48" t="n">
         <v>22.93642</v>
@@ -2308,50 +2384,60 @@
       <c r="M39" s="48" t="n">
         <v>1e-05</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>23.498</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>625.8491899999999</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>692.06858</v>
+        <v>691.34357</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>897.8982199999999</v>
+        <v>845.67465</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>699.5747</v>
+        <v>1694.85987</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>2453.05849</v>
+        <v>1589.6702</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2987.23095</v>
+        <v>2949.44588</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>6660.03302</v>
+        <v>6788.217830000001</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>4527.4658</v>
+        <v>4665.042829999999</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>5967.08433</v>
+        <v>5797.5731</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>19560.16638</v>
+        <v>19440.03972</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>7084.029320000001</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>6506.477349999999</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>35294.88</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>151.42259</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>1.586</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>6.16774</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>80.88616</v>
+        <v>80.25933999999999</v>
       </c>
       <c r="D43" s="48" t="n">
         <v>229.71531</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>237.89738</v>
+        <v>240.0691</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>435.48293</v>
+        <v>395.00515</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>79.12860000000001</v>
+        <v>79.88404</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>310.79598</v>
+        <v>313.05454</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>615.4721099999999</v>
+        <v>1192.32291</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>530.11</v>
+        <v>630.6325000000001</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>1165.37301</v>
+        <v>1172.4511</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>554.69924</v>
+        <v>554.69919</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>1801.04099</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>1776.71824</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>1854.652</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>1310.49612</v>
+        <v>1307.27229</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1314.43137</v>
+        <v>1199.5291</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1529.28586</v>
+        <v>1752.87466</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>2506.46191</v>
+        <v>5534.33116</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>3361.64855</v>
+        <v>6586.04137</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>5662.146650000001</v>
+        <v>9590.374549999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>6715.44906</v>
+        <v>11959.83107</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>8786.74482</v>
+        <v>13371.4657</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>12355.10511</v>
+        <v>19245.98133</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>20785.56663</v>
+        <v>20562.26814</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>24743.69236</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>23183.7529</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>22596.178</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>1266.76536</v>
+        <v>1263.54153</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1293.77497</v>
+        <v>1178.8727</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1489.02736</v>
+        <v>1712.61616</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>2361.35962</v>
+        <v>5404.09006</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3198.31069</v>
+        <v>6448.93051</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>5270.94461</v>
+        <v>9249.649069999999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>6528.307769999999</v>
+        <v>11924.36184</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>8261.83589</v>
+        <v>13015.18701</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>12142.80805</v>
+        <v>19005.52241</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>20550.02506</v>
+        <v>20338.67483</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>23330.74665</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>22330.53515</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>22539.826</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>43.73076</v>
@@ -2558,112 +2669,127 @@
         <v>40.2585</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>145.10229</v>
+        <v>130.2411</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>163.33786</v>
+        <v>137.11086</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>391.20204</v>
+        <v>340.72548</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>187.14129</v>
+        <v>35.46923</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>524.9089300000001</v>
+        <v>356.2786899999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>212.29706</v>
+        <v>240.45892</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>235.54157</v>
+        <v>223.59331</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1412.94571</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>853.21775</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>56.352</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>10386.93134</v>
+        <v>10687.19363</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>10190.45395</v>
+        <v>10292.85348</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>9881.265790000001</v>
+        <v>10813.33885</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>10109.17838</v>
+        <v>13247.78275</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>12802.83913</v>
+        <v>13714.92309</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>15612.66935</v>
+        <v>19091.23299</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>18342.37476</v>
+        <v>9045.665469999998</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>30930.1498</v>
+        <v>52290.92814</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>37592.07973</v>
+        <v>38195.42266999999</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>30671.196</v>
+        <v>30163.01036</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>12304.00799</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>10691.71771</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>41402.462</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>1614.77115</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>2162.16226</v>
+        <v>2036.11498</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1037.17532</v>
+        <v>1143.11918</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>3255.24814</v>
+        <v>4217.68058</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>4109.05134</v>
+        <v>4248.75238</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>6495.54617</v>
+        <v>6962.70501</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>3440.4127</v>
+        <v>4840.89687</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>4473.13371</v>
+        <v>7342.864219999999</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>5881.146220000001</v>
+        <v>8175.66557</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>8440.10518</v>
+        <v>13835.22139</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>13969.40485</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>12311.31114</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>9883.109</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>21.79028</v>
@@ -2675,16 +2801,16 @@
         <v>16.11548</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1.7311</v>
+        <v>4.36164</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>5.69359</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>1.30716</v>
+        <v>3.24903</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>43.57828</v>
+        <v>52.79828</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>8.746829999999999</v>
@@ -2696,91 +2822,106 @@
         <v>7.432</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>18.43241</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>9.49283</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>75.255</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>1592.98087</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>2149.04658</v>
+        <v>2022.9993</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1021.05984</v>
+        <v>1127.0037</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>3253.51704</v>
+        <v>4213.31894</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>4103.35775</v>
+        <v>4243.05879</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>6494.239009999999</v>
+        <v>6959.455980000001</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>3396.83442</v>
+        <v>4788.09859</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>4464.38688</v>
+        <v>7334.117389999999</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>5769.441400000001</v>
+        <v>8063.96075</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>8432.67318</v>
+        <v>13827.78939</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>13950.97244</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>12301.81831</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>9807.853999999999</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>1142.96874</v>
+        <v>1115.75164</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>2516.81897</v>
+        <v>2383.72772</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>11709.74598</v>
+        <v>11120.08264</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>4206.01394</v>
+        <v>4790.18488</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>5187.69084</v>
+        <v>4291.25237</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>12640.17061</v>
+        <v>18565.64936</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>4586.226650000001</v>
+        <v>9775.93792</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>23985.35777</v>
+        <v>27481.26342</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>7307.01612</v>
+        <v>8175.45327</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>18979.80665</v>
+        <v>24374.92141</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>10521.69076</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>26251.85542</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>22177.526</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>9.153589999999999</v>
@@ -2792,16 +2933,16 @@
         <v>0.13226</v>
       </c>
       <c r="F52" s="48" t="n">
-        <v>83.65142</v>
+        <v>108.62907</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>0</v>
+        <v>4.487640000000001</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>19.08518</v>
+        <v>27.50126</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>53.63297</v>
+        <v>50.01689</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>0</v>
@@ -2815,11 +2956,16 @@
       <c r="M52" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>82.992</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>113.00067</v>
@@ -2828,190 +2974,213 @@
         <v>129.19369</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>1345.33862</v>
+        <v>403.39238</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>127.1801</v>
+        <v>202.56168</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>165.30054</v>
+        <v>166.79056</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>940.50864</v>
+        <v>383.32569</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>249.20616</v>
+        <v>335.27499</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>299.03232</v>
+        <v>387.79677</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>807.7686199999999</v>
+        <v>283.29766</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>66.75523</v>
+        <v>131.77916</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>1045.38098</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>1177.07099</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>335.553</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1020.81448</v>
+        <v>993.5973800000002</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>2383.73052</v>
+        <v>2250.63927</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>10364.2751</v>
+        <v>10716.558</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>3995.18242</v>
+        <v>4478.99413</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>5022.390300000001</v>
+        <v>4119.97417</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>11680.57679</v>
+        <v>18154.82241</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>4283.387519999999</v>
+        <v>9390.64604</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>23686.32545</v>
+        <v>27093.46665</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>6498.86897</v>
+        <v>7891.77708</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>18913.05142</v>
+        <v>24243.14225</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>9476.30978</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>25074.78443</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>21758.981</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>10858.73375</v>
+        <v>11186.21314</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>9835.79724</v>
+        <v>9945.240740000001</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-791.3048700000002</v>
+        <v>836.3753900000002</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>9158.41258</v>
+        <v>12675.27845</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>11724.19963</v>
+        <v>13672.4231</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>9468.044910000001</v>
+        <v>7488.288640000001</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>17196.56081</v>
+        <v>4110.62442</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>11417.92574</v>
+        <v>32152.52894</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>36166.20983</v>
+        <v>38195.63497</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>20131.49453</v>
+        <v>19623.31034</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>15751.72208</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>-3248.82657</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>29108.045</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>2504.69224</v>
+        <v>2540.65041</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>2451.9304</v>
+        <v>2438.70019</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>2070.17167</v>
+        <v>2240.08283</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>3116.24274</v>
+        <v>4258.290609999999</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>4514.362990000001</v>
+        <v>4870.69968</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>6175.91426</v>
+        <v>6559.0339</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>7286.497139999999</v>
+        <v>7955.894959999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>8770.000679999999</v>
+        <v>9793.3514</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>10608.70095</v>
+        <v>10907.65809</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>12991.23926</v>
+        <v>14263.95464</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>10553.86482</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>9272.377909999999</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>18097.879</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>8354.041509999999</v>
+        <v>8645.56273</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>7383.86684</v>
+        <v>7506.54055</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-2861.47654</v>
+        <v>-1403.70744</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>6042.16984</v>
+        <v>8416.98784</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>7209.83664</v>
+        <v>8801.72342</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>3292.130650000001</v>
+        <v>929.2547400000002</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>9910.06367</v>
+        <v>-3845.27054</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>2647.92506</v>
+        <v>22359.17754</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>25557.50888</v>
+        <v>27287.97688</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>7140.25527</v>
+        <v>5359.355700000001</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>5197.857259999998</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>-12521.20448</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>11010.166</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="E59" s="35" t="n">
+        <v>437</v>
+      </c>
+      <c r="F59" s="35" t="n">
         <v>450</v>
       </c>
-      <c r="F59" s="35" t="n">
-        <v>466</v>
-      </c>
       <c r="G59" s="35" t="n">
-        <v>502</v>
+        <v>458</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>574</v>
+        <v>516</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>668</v>
+        <v>603</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>740</v>
+        <v>657</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>765</v>
+        <v>663</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>668</v>
+        <v>634</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>587</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>